--- a/enhance-milk-report-vis/dash-report/dummy-data/milk-prod-data-mart-reqs-1.5.xlsx
+++ b/enhance-milk-report-vis/dash-report/dummy-data/milk-prod-data-mart-reqs-1.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metrostarsys-my.sharepoint.com/personal/pmartinez_metrostarsystems_com/Documents/NASS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmartinez/Git/NASS-MILK/enhance-milk-report-vis/dash-report/dummy-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{F7FCEEC7-98E1-B442-9F1D-6607BFABD147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DED6410B-5C4B-A44F-8D45-802F8572901C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13559C-BB8D-A348-8D5D-880A42F0A667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="16820" activeTab="3" xr2:uid="{18E74043-749A-FF40-A645-80F0F71A40CB}"/>
+    <workbookView xWindow="0" yWindow="14180" windowWidth="35840" windowHeight="8220" firstSheet="3" activeTab="11" xr2:uid="{18E74043-749A-FF40-A645-80F0F71A40CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="6" r:id="rId1"/>
@@ -26,6 +26,16 @@
     <sheet name="24stRprtMnthsLngYrsPrsntLst" sheetId="21" r:id="rId11"/>
     <sheet name="metadata" sheetId="8" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">Mo24stLngYrsPrsntLst!$A$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Mo24stLngYrsPrsntLst!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Mo24stLngYrsPrsntLst!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Mo24stLngYrsPrsntLst!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Mo24stLngYrsPrsntLst!$A$1</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Mo24stLngYrsPrsntLst!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Mo24stLngYrsPrsntLst!$B$1</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Mo24stLngYrsPrsntLst!$B$2:$B$20</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="108">
   <si>
     <t>Month</t>
   </si>
@@ -218,15 +228,6 @@
   </si>
   <si>
     <t>each row is an "entity" and each column is an "attribute" of that entity</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>In general the metadata will be a 1xn table that has the column-headers and the values that are "constant" across the entire data-set in question (ex: PROGRAM: Survey)</t>
-  </si>
-  <si>
-    <t>MVP: meta-data extraction is not strictly necessary to deliver tidy-data, but it is more elegant, otherwise you serve the user a table with a column that has every cell with the same value, it is ultimately redundant but not "broken logic."</t>
   </si>
   <si>
     <t>If we assume they know how to manipulate tables we can give them one format and let them do the manipulation (I don't recommend this)</t>
@@ -342,9 +343,6 @@
     <t>Description and Footnotes</t>
   </si>
   <si>
-    <t>To disambiguate, we will only need one metadata table per publication data-set, not one per table inside the publication data-set.</t>
-  </si>
-  <si>
     <t>New Mexico</t>
   </si>
   <si>
@@ -397,13 +395,19 @@
   </si>
   <si>
     <t>Easy for analyzing variables over all the observations</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>SURVEY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -553,6 +557,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -586,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -643,6 +655,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4216,7 +4229,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4263,7 +4276,7 @@
     <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4293,7 +4306,7 @@
     <row r="6" spans="1:16" ht="31" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4342,7 +4355,7 @@
     <row r="9" spans="1:16" ht="26" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4353,7 +4366,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="N9" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
@@ -4395,32 +4408,32 @@
     <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="N12" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -4438,7 +4451,7 @@
         <v>2.6</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -4469,7 +4482,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -4500,7 +4513,7 @@
         <v>6.6</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -4581,7 +4594,7 @@
     </row>
     <row r="36" spans="2:15" ht="26" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4589,7 +4602,7 @@
     </row>
     <row r="37" spans="2:15" ht="26" x14ac:dyDescent="0.3">
       <c r="B37" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -4603,7 +4616,7 @@
     </row>
     <row r="39" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -4611,21 +4624,21 @@
     <row r="40" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C42" s="14"/>
       <c r="D42" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E42" s="14"/>
       <c r="O42" s="7"/>
@@ -4638,7 +4651,7 @@
     </row>
     <row r="44" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C44" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -4646,14 +4659,14 @@
     <row r="45" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C46" s="14"/>
       <c r="D46" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E46" s="14"/>
       <c r="O46" s="7"/>
@@ -4662,7 +4675,7 @@
       <c r="C47" s="15"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O47" s="7"/>
     </row>
@@ -4674,7 +4687,7 @@
     </row>
     <row r="49" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -4682,23 +4695,23 @@
     </row>
     <row r="50" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="D50" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:15" ht="26" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C56" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:15" ht="21" x14ac:dyDescent="0.25">
@@ -4706,12 +4719,12 @@
     </row>
     <row r="59" spans="2:15" ht="26" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="21" x14ac:dyDescent="0.25">
       <c r="C61" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4764,9 +4777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4198FD-6C2A-B444-853F-C699E2177104}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4829,7 +4840,7 @@
         <v>2033</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -4858,7 +4869,7 @@
         <v>1925</v>
       </c>
       <c r="I3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -4887,7 +4898,7 @@
         <v>2084</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4916,7 +4927,7 @@
         <v>2008</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4945,7 +4956,7 @@
         <v>2043</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -4974,7 +4985,7 @@
         <v>1981</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5003,7 +5014,7 @@
         <v>2016</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -5032,7 +5043,7 @@
         <v>2016</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5061,7 +5072,7 @@
         <v>2016</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -5090,7 +5101,7 @@
         <v>2016</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5119,7 +5130,7 @@
         <v>2016</v>
       </c>
       <c r="I12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -5148,12 +5159,12 @@
         <v>2016</v>
       </c>
       <c r="I13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
         <v>16112800000</v>
@@ -5177,12 +5188,12 @@
         <v>1956.8</v>
       </c>
       <c r="I14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3">
         <v>16341600000</v>
@@ -5206,12 +5217,12 @@
         <v>1967.1</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3">
         <v>16570400000</v>
@@ -5235,12 +5246,12 @@
         <v>1977.4</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3">
         <v>16799200000</v>
@@ -5264,12 +5275,12 @@
         <v>1987.7</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3">
         <v>17699000000</v>
@@ -5293,12 +5304,12 @@
         <v>2033</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3">
         <v>16132000000</v>
@@ -5322,12 +5333,12 @@
         <v>1925</v>
       </c>
       <c r="I19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3">
         <v>17916000000</v>
@@ -5351,12 +5362,12 @@
         <v>2084</v>
       </c>
       <c r="I20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>17544000000</v>
@@ -5380,12 +5391,12 @@
         <v>2008</v>
       </c>
       <c r="I21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3">
         <v>18137000000</v>
@@ -5409,12 +5420,12 @@
         <v>2043</v>
       </c>
       <c r="I22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3">
         <v>18843000000</v>
@@ -5438,12 +5449,12 @@
         <v>2084.5</v>
       </c>
       <c r="I23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3">
         <v>19407300000</v>
@@ -5467,12 +5478,12 @@
         <v>2112.3000000000002</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3">
         <v>19971600000</v>
@@ -5496,7 +5507,7 @@
         <v>2140.1</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5509,9 +5520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCDA15C-01AC-E947-8D92-BB3BD67D4DE6}">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5571,7 +5580,7 @@
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L2" s="27"/>
       <c r="M2" s="28"/>
@@ -5600,7 +5609,7 @@
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="28"/>
@@ -5629,7 +5638,7 @@
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L4" s="27"/>
       <c r="M4" s="28"/>
@@ -5658,7 +5667,7 @@
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L5" s="27"/>
       <c r="M5" s="28"/>
@@ -5687,7 +5696,7 @@
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -5716,7 +5725,7 @@
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="28"/>
@@ -5745,7 +5754,7 @@
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L8" s="27"/>
       <c r="M8" s="28"/>
@@ -5774,7 +5783,7 @@
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L9" s="27"/>
       <c r="M9" s="28"/>
@@ -5803,7 +5812,7 @@
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
@@ -5832,7 +5841,7 @@
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L11" s="27"/>
       <c r="M11" s="28"/>
@@ -5861,7 +5870,7 @@
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="28"/>
@@ -5890,7 +5899,7 @@
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="28"/>
@@ -5913,13 +5922,13 @@
         <v>1826.6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E14" s="31">
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="28"/>
@@ -5942,13 +5951,13 @@
         <v>1853.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15" s="31">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="28"/>
@@ -5971,13 +5980,13 @@
         <v>1880.4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E16" s="31">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="28"/>
@@ -6000,13 +6009,13 @@
         <v>1907.3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E17" s="31">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="28"/>
@@ -6029,13 +6038,13 @@
         <v>2010</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E18" s="31">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="28"/>
@@ -6058,13 +6067,13 @@
         <v>1833</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="31">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="28"/>
@@ -6087,13 +6096,13 @@
         <v>2038</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="31">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L20" s="27"/>
       <c r="M20" s="28"/>
@@ -6116,13 +6125,13 @@
         <v>1996</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E21" s="31">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="28"/>
@@ -6145,13 +6154,13 @@
         <v>2063</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E22" s="31">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="28"/>
@@ -6174,13 +6183,13 @@
         <v>2144.5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E23" s="31">
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="28"/>
@@ -6203,13 +6212,13 @@
         <v>2209.3000000000002</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E24" s="31">
         <v>2019</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="28"/>
@@ -6232,13 +6241,13 @@
         <v>2274.1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E25" s="31">
         <v>2019</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="28"/>
@@ -6267,7 +6276,7 @@
         <v>2020</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -6287,7 +6296,7 @@
         <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -6307,7 +6316,7 @@
         <v>2020</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -6327,7 +6336,7 @@
         <v>2020</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -6347,7 +6356,7 @@
         <v>2020</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -6367,7 +6376,7 @@
         <v>2020</v>
       </c>
       <c r="F31" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
@@ -6387,7 +6396,7 @@
         <v>2020</v>
       </c>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6407,7 +6416,7 @@
         <v>2020</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6427,7 +6436,7 @@
         <v>2020</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6447,7 +6456,7 @@
         <v>2020</v>
       </c>
       <c r="F35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6467,7 +6476,7 @@
         <v>2020</v>
       </c>
       <c r="F36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6487,7 +6496,7 @@
         <v>2020</v>
       </c>
       <c r="F37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6501,13 +6510,13 @@
         <v>1956.8</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E38" s="31">
         <v>2020</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6521,13 +6530,13 @@
         <v>1967.1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E39" s="31">
         <v>2020</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6541,13 +6550,13 @@
         <v>1977.4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E40" s="31">
         <v>2020</v>
       </c>
       <c r="F40" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6561,13 +6570,13 @@
         <v>1987.7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E41" s="31">
         <v>2020</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6581,13 +6590,13 @@
         <v>2033</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E42" s="31">
         <v>2020</v>
       </c>
       <c r="F42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6601,13 +6610,13 @@
         <v>1925</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E43" s="31">
         <v>2020</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -6621,13 +6630,13 @@
         <v>2084</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E44" s="31">
         <v>2020</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -6641,13 +6650,13 @@
         <v>2008</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E45" s="31">
         <v>2020</v>
       </c>
       <c r="F45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -6661,13 +6670,13 @@
         <v>2043</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E46" s="31">
         <v>2020</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -6681,13 +6690,13 @@
         <v>2084.5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E47" s="31">
         <v>2020</v>
       </c>
       <c r="F47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -6701,13 +6710,13 @@
         <v>2112.3000000000002</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E48" s="31">
         <v>2020</v>
       </c>
       <c r="F48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -6721,13 +6730,13 @@
         <v>2140.1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E49" s="31">
         <v>2020</v>
       </c>
       <c r="F49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -6747,7 +6756,7 @@
         <v>2019</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -6767,7 +6776,7 @@
         <v>2019</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -6787,7 +6796,7 @@
         <v>2019</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -6807,7 +6816,7 @@
         <v>2019</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -6827,7 +6836,7 @@
         <v>2019</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -6847,7 +6856,7 @@
         <v>2019</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -6867,7 +6876,7 @@
         <v>2019</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -6887,7 +6896,7 @@
         <v>2019</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -6907,7 +6916,7 @@
         <v>2019</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -6927,7 +6936,7 @@
         <v>2019</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -6947,7 +6956,7 @@
         <v>2019</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -6967,7 +6976,7 @@
         <v>2019</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -6981,13 +6990,13 @@
         <v>1826.6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E62" s="31">
         <v>2019</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -7001,13 +7010,13 @@
         <v>1853.5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E63" s="31">
         <v>2019</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -7021,13 +7030,13 @@
         <v>1880.4</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E64" s="31">
         <v>2019</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -7041,13 +7050,13 @@
         <v>1907.3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E65" s="31">
         <v>2019</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -7061,13 +7070,13 @@
         <v>2010</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E66" s="31">
         <v>2019</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -7081,13 +7090,13 @@
         <v>1833</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E67" s="31">
         <v>2019</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -7101,13 +7110,13 @@
         <v>2038</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E68" s="31">
         <v>2019</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -7121,13 +7130,13 @@
         <v>1996</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E69" s="31">
         <v>2019</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -7141,13 +7150,13 @@
         <v>2063</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E70" s="31">
         <v>2019</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -7161,13 +7170,13 @@
         <v>2144.5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E71" s="31">
         <v>2019</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -7181,13 +7190,13 @@
         <v>2209.3000000000002</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E72" s="31">
         <v>2019</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -7201,13 +7210,13 @@
         <v>2274.1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E73" s="31">
         <v>2019</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -7227,7 +7236,7 @@
         <v>2020</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -7247,7 +7256,7 @@
         <v>2020</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -7267,7 +7276,7 @@
         <v>2020</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -7287,7 +7296,7 @@
         <v>2020</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -7307,7 +7316,7 @@
         <v>2020</v>
       </c>
       <c r="F78" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -7327,7 +7336,7 @@
         <v>2020</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -7347,7 +7356,7 @@
         <v>2020</v>
       </c>
       <c r="F80" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -7367,7 +7376,7 @@
         <v>2020</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -7387,7 +7396,7 @@
         <v>2020</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -7407,7 +7416,7 @@
         <v>2020</v>
       </c>
       <c r="F83" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -7427,7 +7436,7 @@
         <v>2020</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -7447,7 +7456,7 @@
         <v>2020</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -7461,13 +7470,13 @@
         <v>1956.8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E86" s="31">
         <v>2020</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -7481,13 +7490,13 @@
         <v>1967.1</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E87" s="31">
         <v>2020</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -7501,13 +7510,13 @@
         <v>1977.4</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E88" s="31">
         <v>2020</v>
       </c>
       <c r="F88" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -7521,13 +7530,13 @@
         <v>1987.7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E89" s="31">
         <v>2020</v>
       </c>
       <c r="F89" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -7541,13 +7550,13 @@
         <v>2033</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E90" s="31">
         <v>2020</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -7561,13 +7570,13 @@
         <v>1925</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E91" s="31">
         <v>2020</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -7581,13 +7590,13 @@
         <v>2084</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E92" s="31">
         <v>2020</v>
       </c>
       <c r="F92" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -7601,13 +7610,13 @@
         <v>2008</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E93" s="31">
         <v>2020</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -7621,13 +7630,13 @@
         <v>2043</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E94" s="31">
         <v>2020</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -7641,13 +7650,13 @@
         <v>2084.5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E95" s="31">
         <v>2020</v>
       </c>
       <c r="F95" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -7661,13 +7670,13 @@
         <v>2112.3000000000002</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E96" s="31">
         <v>2020</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -7681,13 +7690,13 @@
         <v>2140.1</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E97" s="31">
         <v>2020</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7699,38 +7708,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF68689-30C7-074E-8257-973C71620241}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="13"/>
+      <c r="A1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>59</v>
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
-        <v>91</v>
-      </c>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="13"/>
     </row>
   </sheetData>
@@ -7759,7 +7768,7 @@
         <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -8042,7 +8051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C6F5B0-0C81-0D41-9D0F-91912B57482A}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8185,7 +8194,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8549,7 +8558,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8969,9 +8978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E096290-E173-4B42-A453-82A947F07FF4}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I13"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9333,9 +9340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ADF8FD-0B82-3D4D-A870-EF3E38E0C60C}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9774,9 +9779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC79A0EB-82C6-C948-BDEC-3E065A36834F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I25"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9839,7 +9842,7 @@
         <v>2033</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9868,7 +9871,7 @@
         <v>1925</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9897,7 +9900,7 @@
         <v>2084</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9926,7 +9929,7 @@
         <v>2008</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9955,7 +9958,7 @@
         <v>2043</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9984,7 +9987,7 @@
         <v>1981</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10013,7 +10016,7 @@
         <v>2016</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -10042,7 +10045,7 @@
         <v>2016</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -10071,7 +10074,7 @@
         <v>2016</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -10100,7 +10103,7 @@
         <v>2016</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -10129,7 +10132,7 @@
         <v>2016</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -10158,12 +10161,12 @@
         <v>2016</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
         <v>16112800000</v>
@@ -10187,12 +10190,12 @@
         <v>1956.8</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="3">
         <v>16341600000</v>
@@ -10216,12 +10219,12 @@
         <v>1967.1</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" s="3">
         <v>16570400000</v>
@@ -10245,12 +10248,12 @@
         <v>1977.4</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3">
         <v>16799200000</v>
@@ -10274,12 +10277,12 @@
         <v>1987.7</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B18" s="3">
         <v>17699000000</v>
@@ -10303,12 +10306,12 @@
         <v>2033</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B19" s="3">
         <v>16132000000</v>
@@ -10332,12 +10335,12 @@
         <v>1925</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3">
         <v>17916000000</v>
@@ -10361,12 +10364,12 @@
         <v>2084</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3">
         <v>17544000000</v>
@@ -10390,12 +10393,12 @@
         <v>2008</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3">
         <v>18137000000</v>
@@ -10419,12 +10422,12 @@
         <v>2043</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B23" s="3">
         <v>18843000000</v>
@@ -10448,12 +10451,12 @@
         <v>2084.5</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="3">
         <v>19407300000</v>
@@ -10477,12 +10480,12 @@
         <v>2112.3000000000002</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3">
         <v>19971600000</v>
@@ -10506,7 +10509,7 @@
         <v>2140.1</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
